--- a/Excel-XLSX/UN-KRN.xlsx
+++ b/Excel-XLSX/UN-KRN.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>lL2Yk4</t>
+    <t>ff7Zo5</t>
   </si>
   <si>
     <t>2015</t>
@@ -120,7 +120,7 @@
     <t>16</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-KRN.xlsx
+++ b/Excel-XLSX/UN-KRN.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ff7Zo5</t>
+    <t>7k6Wry</t>
   </si>
   <si>
     <t>2015</t>
@@ -645,8 +645,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-KRN.xlsx
+++ b/Excel-XLSX/UN-KRN.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>7k6Wry</t>
+    <t>3DUFiO</t>
   </si>
   <si>
     <t>2015</t>
